--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Schedule_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Schedule_ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C627B7D1-F6BD-4CE0-BC9B-4C22BD792632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B93546D-1122-451A-B711-6979BCFAC0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -24,12 +24,14 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L2.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2538,7 +2540,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="6"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="13"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2948,8 +2950,8 @@
   <dimension ref="A1:ET85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="7" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3125,11 +3127,11 @@
         <v>13</v>
       </c>
       <c r="I4" s="115">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K4" s="164" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
+        <v>Week 13</v>
       </c>
       <c r="L4" s="143"/>
       <c r="M4" s="143"/>
@@ -3139,7 +3141,7 @@
       <c r="Q4" s="169"/>
       <c r="R4" s="164" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
+        <v>Week 14</v>
       </c>
       <c r="S4" s="143"/>
       <c r="T4" s="143"/>
@@ -3149,7 +3151,7 @@
       <c r="X4" s="165"/>
       <c r="Y4" s="173" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
+        <v>Week 15</v>
       </c>
       <c r="Z4" s="143"/>
       <c r="AA4" s="143"/>
@@ -3159,7 +3161,7 @@
       <c r="AE4" s="174"/>
       <c r="AF4" s="160" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 9</v>
+        <v>Week 16</v>
       </c>
       <c r="AG4" s="143"/>
       <c r="AH4" s="143"/>
@@ -3169,7 +3171,7 @@
       <c r="AL4" s="161"/>
       <c r="AM4" s="154" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 10</v>
+        <v>Week 17</v>
       </c>
       <c r="AN4" s="143"/>
       <c r="AO4" s="143"/>
@@ -3179,7 +3181,7 @@
       <c r="AS4" s="155"/>
       <c r="AT4" s="150" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 11</v>
+        <v>Week 18</v>
       </c>
       <c r="AU4" s="143"/>
       <c r="AV4" s="143"/>
@@ -3189,7 +3191,7 @@
       <c r="AZ4" s="151"/>
       <c r="BA4" s="156" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 12</v>
+        <v>Week 19</v>
       </c>
       <c r="BB4" s="143"/>
       <c r="BC4" s="143"/>
@@ -3199,7 +3201,7 @@
       <c r="BG4" s="157"/>
       <c r="BH4" s="142" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 13</v>
+        <v>Week 20</v>
       </c>
       <c r="BI4" s="143"/>
       <c r="BJ4" s="143"/>
@@ -3225,7 +3227,7 @@
       <c r="J5" s="49"/>
       <c r="K5" s="170">
         <f>K6</f>
-        <v>43787</v>
+        <v>43836</v>
       </c>
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
@@ -3235,7 +3237,7 @@
       <c r="Q5" s="172"/>
       <c r="R5" s="170">
         <f>R6</f>
-        <v>43794</v>
+        <v>43843</v>
       </c>
       <c r="S5" s="146"/>
       <c r="T5" s="146"/>
@@ -3245,7 +3247,7 @@
       <c r="X5" s="171"/>
       <c r="Y5" s="175">
         <f>Y6</f>
-        <v>43801</v>
+        <v>43850</v>
       </c>
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
@@ -3255,7 +3257,7 @@
       <c r="AE5" s="176"/>
       <c r="AF5" s="162">
         <f>AF6</f>
-        <v>43808</v>
+        <v>43857</v>
       </c>
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
@@ -3265,7 +3267,7 @@
       <c r="AL5" s="163"/>
       <c r="AM5" s="148">
         <f>AM6</f>
-        <v>43815</v>
+        <v>43864</v>
       </c>
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
@@ -3275,7 +3277,7 @@
       <c r="AS5" s="149"/>
       <c r="AT5" s="152">
         <f>AT6</f>
-        <v>43822</v>
+        <v>43871</v>
       </c>
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
@@ -3285,7 +3287,7 @@
       <c r="AZ5" s="153"/>
       <c r="BA5" s="158">
         <f>BA6</f>
-        <v>43829</v>
+        <v>43878</v>
       </c>
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
@@ -3295,7 +3297,7 @@
       <c r="BG5" s="159"/>
       <c r="BH5" s="145">
         <f>BH6</f>
-        <v>43836</v>
+        <v>43885</v>
       </c>
       <c r="BI5" s="146"/>
       <c r="BJ5" s="146"/>
@@ -3317,227 +3319,227 @@
       <c r="J6" s="45"/>
       <c r="K6" s="60">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
-        <v>43787</v>
+        <v>43836</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43788</v>
+        <v>43837</v>
       </c>
       <c r="M6" s="47">
         <f t="shared" si="0"/>
-        <v>43789</v>
+        <v>43838</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="0"/>
-        <v>43790</v>
+        <v>43839</v>
       </c>
       <c r="O6" s="47">
         <f t="shared" si="0"/>
-        <v>43791</v>
+        <v>43840</v>
       </c>
       <c r="P6" s="47">
         <f t="shared" si="0"/>
-        <v>43792</v>
+        <v>43841</v>
       </c>
       <c r="Q6" s="61">
         <f t="shared" si="0"/>
-        <v>43793</v>
+        <v>43842</v>
       </c>
       <c r="R6" s="60">
         <f t="shared" si="0"/>
-        <v>43794</v>
+        <v>43843</v>
       </c>
       <c r="S6" s="47">
         <f t="shared" si="0"/>
-        <v>43795</v>
+        <v>43844</v>
       </c>
       <c r="T6" s="47">
         <f t="shared" si="0"/>
-        <v>43796</v>
+        <v>43845</v>
       </c>
       <c r="U6" s="47">
         <f t="shared" ref="U6" si="1">T6+1</f>
-        <v>43797</v>
+        <v>43846</v>
       </c>
       <c r="V6" s="47">
         <f t="shared" ref="V6" si="2">U6+1</f>
-        <v>43798</v>
+        <v>43847</v>
       </c>
       <c r="W6" s="47">
         <f t="shared" ref="W6" si="3">V6+1</f>
-        <v>43799</v>
+        <v>43848</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="0"/>
-        <v>43800</v>
+        <v>43849</v>
       </c>
       <c r="Y6" s="63">
         <f t="shared" si="0"/>
-        <v>43801</v>
+        <v>43850</v>
       </c>
       <c r="Z6" s="47">
         <f t="shared" si="0"/>
-        <v>43802</v>
+        <v>43851</v>
       </c>
       <c r="AA6" s="47">
         <f t="shared" si="0"/>
-        <v>43803</v>
+        <v>43852</v>
       </c>
       <c r="AB6" s="47">
         <f t="shared" si="0"/>
-        <v>43804</v>
+        <v>43853</v>
       </c>
       <c r="AC6" s="47">
         <f t="shared" si="0"/>
-        <v>43805</v>
+        <v>43854</v>
       </c>
       <c r="AD6" s="47">
         <f t="shared" si="0"/>
-        <v>43806</v>
+        <v>43855</v>
       </c>
       <c r="AE6" s="64">
         <f t="shared" si="0"/>
-        <v>43807</v>
+        <v>43856</v>
       </c>
       <c r="AF6" s="65">
         <f t="shared" si="0"/>
-        <v>43808</v>
+        <v>43857</v>
       </c>
       <c r="AG6" s="47">
         <f t="shared" si="0"/>
-        <v>43809</v>
+        <v>43858</v>
       </c>
       <c r="AH6" s="47">
         <f t="shared" si="0"/>
-        <v>43810</v>
+        <v>43859</v>
       </c>
       <c r="AI6" s="47">
         <f t="shared" si="0"/>
-        <v>43811</v>
+        <v>43860</v>
       </c>
       <c r="AJ6" s="47">
         <f t="shared" si="0"/>
-        <v>43812</v>
+        <v>43861</v>
       </c>
       <c r="AK6" s="47">
         <f t="shared" si="0"/>
-        <v>43813</v>
+        <v>43862</v>
       </c>
       <c r="AL6" s="66">
         <f t="shared" si="0"/>
-        <v>43814</v>
+        <v>43863</v>
       </c>
       <c r="AM6" s="67">
         <f t="shared" si="0"/>
-        <v>43815</v>
+        <v>43864</v>
       </c>
       <c r="AN6" s="47">
         <f t="shared" si="0"/>
-        <v>43816</v>
+        <v>43865</v>
       </c>
       <c r="AO6" s="47">
         <f t="shared" si="0"/>
-        <v>43817</v>
+        <v>43866</v>
       </c>
       <c r="AP6" s="47">
         <f t="shared" si="0"/>
-        <v>43818</v>
+        <v>43867</v>
       </c>
       <c r="AQ6" s="47">
         <f t="shared" si="0"/>
-        <v>43819</v>
+        <v>43868</v>
       </c>
       <c r="AR6" s="47">
         <f t="shared" ref="AR6:BN6" si="4">AQ6+1</f>
-        <v>43820</v>
+        <v>43869</v>
       </c>
       <c r="AS6" s="68">
         <f t="shared" si="4"/>
-        <v>43821</v>
+        <v>43870</v>
       </c>
       <c r="AT6" s="69">
         <f t="shared" si="4"/>
-        <v>43822</v>
+        <v>43871</v>
       </c>
       <c r="AU6" s="47">
         <f t="shared" si="4"/>
-        <v>43823</v>
+        <v>43872</v>
       </c>
       <c r="AV6" s="47">
         <f t="shared" si="4"/>
-        <v>43824</v>
+        <v>43873</v>
       </c>
       <c r="AW6" s="47">
         <f t="shared" si="4"/>
-        <v>43825</v>
+        <v>43874</v>
       </c>
       <c r="AX6" s="47">
         <f t="shared" si="4"/>
-        <v>43826</v>
+        <v>43875</v>
       </c>
       <c r="AY6" s="47">
         <f t="shared" si="4"/>
-        <v>43827</v>
+        <v>43876</v>
       </c>
       <c r="AZ6" s="70">
         <f t="shared" si="4"/>
-        <v>43828</v>
+        <v>43877</v>
       </c>
       <c r="BA6" s="71">
         <f t="shared" si="4"/>
-        <v>43829</v>
+        <v>43878</v>
       </c>
       <c r="BB6" s="47">
         <f t="shared" si="4"/>
-        <v>43830</v>
+        <v>43879</v>
       </c>
       <c r="BC6" s="47">
         <f t="shared" si="4"/>
-        <v>43831</v>
+        <v>43880</v>
       </c>
       <c r="BD6" s="47">
         <f t="shared" si="4"/>
-        <v>43832</v>
+        <v>43881</v>
       </c>
       <c r="BE6" s="47">
         <f t="shared" si="4"/>
-        <v>43833</v>
+        <v>43882</v>
       </c>
       <c r="BF6" s="47">
         <f t="shared" si="4"/>
-        <v>43834</v>
+        <v>43883</v>
       </c>
       <c r="BG6" s="72">
         <f t="shared" si="4"/>
-        <v>43835</v>
+        <v>43884</v>
       </c>
       <c r="BH6" s="73">
         <f t="shared" si="4"/>
-        <v>43836</v>
+        <v>43885</v>
       </c>
       <c r="BI6" s="47">
         <f t="shared" si="4"/>
-        <v>43837</v>
+        <v>43886</v>
       </c>
       <c r="BJ6" s="47">
         <f t="shared" si="4"/>
-        <v>43838</v>
+        <v>43887</v>
       </c>
       <c r="BK6" s="47">
         <f t="shared" si="4"/>
-        <v>43839</v>
+        <v>43888</v>
       </c>
       <c r="BL6" s="47">
         <f t="shared" si="4"/>
-        <v>43840</v>
+        <v>43889</v>
       </c>
       <c r="BM6" s="47">
         <f t="shared" si="4"/>
-        <v>43841</v>
+        <v>43890</v>
       </c>
       <c r="BN6" s="74">
         <f t="shared" si="4"/>
-        <v>43842</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="7" spans="1:150" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Schedule_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Schedule_ver1.0.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B93546D-1122-451A-B711-6979BCFAC0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0383B9-8A0D-4B28-8C1E-E73D5D56769F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="345" windowWidth="15210" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$82</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L2.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -402,7 +400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>WBS</t>
   </si>
@@ -635,13 +633,19 @@
     <t>Module 3</t>
   </si>
   <si>
-    <t>Design Module 2</t>
-  </si>
-  <si>
     <t>Design Module 3</t>
   </si>
   <si>
     <t>Quốc Nhân, Anh Minh</t>
+  </si>
+  <si>
+    <t>Đạt Huỳnh, Quang Vương, Anh Minh</t>
+  </si>
+  <si>
+    <t>Feature "Quản lý đăng nhập"</t>
+  </si>
+  <si>
+    <t>Details Design</t>
   </si>
 </sst>
 </file>
@@ -2403,7 +2407,137 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="20">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -2540,7 +2674,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="13"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="11"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2947,11 +3081,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET85"/>
+  <dimension ref="A1:ET91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3127,11 +3261,11 @@
         <v>13</v>
       </c>
       <c r="I4" s="115">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="164" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 13</v>
+        <v>Week 11</v>
       </c>
       <c r="L4" s="143"/>
       <c r="M4" s="143"/>
@@ -3141,7 +3275,7 @@
       <c r="Q4" s="169"/>
       <c r="R4" s="164" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 14</v>
+        <v>Week 12</v>
       </c>
       <c r="S4" s="143"/>
       <c r="T4" s="143"/>
@@ -3151,7 +3285,7 @@
       <c r="X4" s="165"/>
       <c r="Y4" s="173" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 15</v>
+        <v>Week 13</v>
       </c>
       <c r="Z4" s="143"/>
       <c r="AA4" s="143"/>
@@ -3161,7 +3295,7 @@
       <c r="AE4" s="174"/>
       <c r="AF4" s="160" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 16</v>
+        <v>Week 14</v>
       </c>
       <c r="AG4" s="143"/>
       <c r="AH4" s="143"/>
@@ -3171,7 +3305,7 @@
       <c r="AL4" s="161"/>
       <c r="AM4" s="154" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 17</v>
+        <v>Week 15</v>
       </c>
       <c r="AN4" s="143"/>
       <c r="AO4" s="143"/>
@@ -3181,7 +3315,7 @@
       <c r="AS4" s="155"/>
       <c r="AT4" s="150" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 18</v>
+        <v>Week 16</v>
       </c>
       <c r="AU4" s="143"/>
       <c r="AV4" s="143"/>
@@ -3191,7 +3325,7 @@
       <c r="AZ4" s="151"/>
       <c r="BA4" s="156" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 19</v>
+        <v>Week 17</v>
       </c>
       <c r="BB4" s="143"/>
       <c r="BC4" s="143"/>
@@ -3201,7 +3335,7 @@
       <c r="BG4" s="157"/>
       <c r="BH4" s="142" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 20</v>
+        <v>Week 18</v>
       </c>
       <c r="BI4" s="143"/>
       <c r="BJ4" s="143"/>
@@ -3227,7 +3361,7 @@
       <c r="J5" s="49"/>
       <c r="K5" s="170">
         <f>K6</f>
-        <v>43836</v>
+        <v>43822</v>
       </c>
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
@@ -3237,7 +3371,7 @@
       <c r="Q5" s="172"/>
       <c r="R5" s="170">
         <f>R6</f>
-        <v>43843</v>
+        <v>43829</v>
       </c>
       <c r="S5" s="146"/>
       <c r="T5" s="146"/>
@@ -3247,7 +3381,7 @@
       <c r="X5" s="171"/>
       <c r="Y5" s="175">
         <f>Y6</f>
-        <v>43850</v>
+        <v>43836</v>
       </c>
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
@@ -3257,7 +3391,7 @@
       <c r="AE5" s="176"/>
       <c r="AF5" s="162">
         <f>AF6</f>
-        <v>43857</v>
+        <v>43843</v>
       </c>
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
@@ -3267,7 +3401,7 @@
       <c r="AL5" s="163"/>
       <c r="AM5" s="148">
         <f>AM6</f>
-        <v>43864</v>
+        <v>43850</v>
       </c>
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
@@ -3277,7 +3411,7 @@
       <c r="AS5" s="149"/>
       <c r="AT5" s="152">
         <f>AT6</f>
-        <v>43871</v>
+        <v>43857</v>
       </c>
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
@@ -3287,7 +3421,7 @@
       <c r="AZ5" s="153"/>
       <c r="BA5" s="158">
         <f>BA6</f>
-        <v>43878</v>
+        <v>43864</v>
       </c>
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
@@ -3297,7 +3431,7 @@
       <c r="BG5" s="159"/>
       <c r="BH5" s="145">
         <f>BH6</f>
-        <v>43885</v>
+        <v>43871</v>
       </c>
       <c r="BI5" s="146"/>
       <c r="BJ5" s="146"/>
@@ -3319,227 +3453,227 @@
       <c r="J6" s="45"/>
       <c r="K6" s="60">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
-        <v>43836</v>
+        <v>43822</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43837</v>
+        <v>43823</v>
       </c>
       <c r="M6" s="47">
         <f t="shared" si="0"/>
-        <v>43838</v>
+        <v>43824</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="0"/>
-        <v>43839</v>
+        <v>43825</v>
       </c>
       <c r="O6" s="47">
         <f t="shared" si="0"/>
-        <v>43840</v>
+        <v>43826</v>
       </c>
       <c r="P6" s="47">
         <f t="shared" si="0"/>
-        <v>43841</v>
+        <v>43827</v>
       </c>
       <c r="Q6" s="61">
         <f t="shared" si="0"/>
-        <v>43842</v>
+        <v>43828</v>
       </c>
       <c r="R6" s="60">
         <f t="shared" si="0"/>
-        <v>43843</v>
+        <v>43829</v>
       </c>
       <c r="S6" s="47">
         <f t="shared" si="0"/>
-        <v>43844</v>
+        <v>43830</v>
       </c>
       <c r="T6" s="47">
         <f t="shared" si="0"/>
-        <v>43845</v>
+        <v>43831</v>
       </c>
       <c r="U6" s="47">
         <f t="shared" ref="U6" si="1">T6+1</f>
-        <v>43846</v>
+        <v>43832</v>
       </c>
       <c r="V6" s="47">
         <f t="shared" ref="V6" si="2">U6+1</f>
-        <v>43847</v>
+        <v>43833</v>
       </c>
       <c r="W6" s="47">
         <f t="shared" ref="W6" si="3">V6+1</f>
-        <v>43848</v>
+        <v>43834</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="0"/>
-        <v>43849</v>
+        <v>43835</v>
       </c>
       <c r="Y6" s="63">
         <f t="shared" si="0"/>
-        <v>43850</v>
+        <v>43836</v>
       </c>
       <c r="Z6" s="47">
         <f t="shared" si="0"/>
-        <v>43851</v>
+        <v>43837</v>
       </c>
       <c r="AA6" s="47">
         <f t="shared" si="0"/>
-        <v>43852</v>
+        <v>43838</v>
       </c>
       <c r="AB6" s="47">
         <f t="shared" si="0"/>
-        <v>43853</v>
+        <v>43839</v>
       </c>
       <c r="AC6" s="47">
         <f t="shared" si="0"/>
-        <v>43854</v>
+        <v>43840</v>
       </c>
       <c r="AD6" s="47">
         <f t="shared" si="0"/>
-        <v>43855</v>
+        <v>43841</v>
       </c>
       <c r="AE6" s="64">
         <f t="shared" si="0"/>
-        <v>43856</v>
+        <v>43842</v>
       </c>
       <c r="AF6" s="65">
         <f t="shared" si="0"/>
-        <v>43857</v>
+        <v>43843</v>
       </c>
       <c r="AG6" s="47">
         <f t="shared" si="0"/>
-        <v>43858</v>
+        <v>43844</v>
       </c>
       <c r="AH6" s="47">
         <f t="shared" si="0"/>
-        <v>43859</v>
+        <v>43845</v>
       </c>
       <c r="AI6" s="47">
         <f t="shared" si="0"/>
-        <v>43860</v>
+        <v>43846</v>
       </c>
       <c r="AJ6" s="47">
         <f t="shared" si="0"/>
-        <v>43861</v>
+        <v>43847</v>
       </c>
       <c r="AK6" s="47">
         <f t="shared" si="0"/>
-        <v>43862</v>
+        <v>43848</v>
       </c>
       <c r="AL6" s="66">
         <f t="shared" si="0"/>
-        <v>43863</v>
+        <v>43849</v>
       </c>
       <c r="AM6" s="67">
         <f t="shared" si="0"/>
-        <v>43864</v>
+        <v>43850</v>
       </c>
       <c r="AN6" s="47">
         <f t="shared" si="0"/>
-        <v>43865</v>
+        <v>43851</v>
       </c>
       <c r="AO6" s="47">
         <f t="shared" si="0"/>
-        <v>43866</v>
+        <v>43852</v>
       </c>
       <c r="AP6" s="47">
         <f t="shared" si="0"/>
-        <v>43867</v>
+        <v>43853</v>
       </c>
       <c r="AQ6" s="47">
         <f t="shared" si="0"/>
-        <v>43868</v>
+        <v>43854</v>
       </c>
       <c r="AR6" s="47">
         <f t="shared" ref="AR6:BN6" si="4">AQ6+1</f>
-        <v>43869</v>
+        <v>43855</v>
       </c>
       <c r="AS6" s="68">
         <f t="shared" si="4"/>
-        <v>43870</v>
+        <v>43856</v>
       </c>
       <c r="AT6" s="69">
         <f t="shared" si="4"/>
-        <v>43871</v>
+        <v>43857</v>
       </c>
       <c r="AU6" s="47">
         <f t="shared" si="4"/>
-        <v>43872</v>
+        <v>43858</v>
       </c>
       <c r="AV6" s="47">
         <f t="shared" si="4"/>
-        <v>43873</v>
+        <v>43859</v>
       </c>
       <c r="AW6" s="47">
         <f t="shared" si="4"/>
-        <v>43874</v>
+        <v>43860</v>
       </c>
       <c r="AX6" s="47">
         <f t="shared" si="4"/>
-        <v>43875</v>
+        <v>43861</v>
       </c>
       <c r="AY6" s="47">
         <f t="shared" si="4"/>
-        <v>43876</v>
+        <v>43862</v>
       </c>
       <c r="AZ6" s="70">
         <f t="shared" si="4"/>
-        <v>43877</v>
+        <v>43863</v>
       </c>
       <c r="BA6" s="71">
         <f t="shared" si="4"/>
-        <v>43878</v>
+        <v>43864</v>
       </c>
       <c r="BB6" s="47">
         <f t="shared" si="4"/>
-        <v>43879</v>
+        <v>43865</v>
       </c>
       <c r="BC6" s="47">
         <f t="shared" si="4"/>
-        <v>43880</v>
+        <v>43866</v>
       </c>
       <c r="BD6" s="47">
         <f t="shared" si="4"/>
-        <v>43881</v>
+        <v>43867</v>
       </c>
       <c r="BE6" s="47">
         <f t="shared" si="4"/>
-        <v>43882</v>
+        <v>43868</v>
       </c>
       <c r="BF6" s="47">
         <f t="shared" si="4"/>
-        <v>43883</v>
+        <v>43869</v>
       </c>
       <c r="BG6" s="72">
         <f t="shared" si="4"/>
-        <v>43884</v>
+        <v>43870</v>
       </c>
       <c r="BH6" s="73">
         <f t="shared" si="4"/>
-        <v>43885</v>
+        <v>43871</v>
       </c>
       <c r="BI6" s="47">
         <f t="shared" si="4"/>
-        <v>43886</v>
+        <v>43872</v>
       </c>
       <c r="BJ6" s="47">
         <f t="shared" si="4"/>
-        <v>43887</v>
+        <v>43873</v>
       </c>
       <c r="BK6" s="47">
         <f t="shared" si="4"/>
-        <v>43888</v>
+        <v>43874</v>
       </c>
       <c r="BL6" s="47">
         <f t="shared" si="4"/>
-        <v>43889</v>
+        <v>43875</v>
       </c>
       <c r="BM6" s="47">
         <f t="shared" si="4"/>
-        <v>43890</v>
+        <v>43876</v>
       </c>
       <c r="BN6" s="74">
         <f t="shared" si="4"/>
-        <v>43891</v>
+        <v>43877</v>
       </c>
     </row>
     <row r="7" spans="1:150" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6300,7 +6434,7 @@
         <v>52</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="82">
@@ -6317,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="99">
-        <f t="shared" ref="I36:I64" si="13">IF(OR(F36=0,E36=0),0,NETWORKDAYS.INTL(E36,F36,11))</f>
+        <f t="shared" ref="I36:I70" si="13">IF(OR(F36=0,E36=0),0,NETWORKDAYS.INTL(E36,F36,11))</f>
         <v>12</v>
       </c>
       <c r="J36" s="89"/>
@@ -7166,7 +7300,7 @@
         <v>43822</v>
       </c>
       <c r="F46" s="78">
-        <f t="shared" ref="F46:F64" si="14">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
+        <f t="shared" ref="F46:F70" si="14">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
         <v>43835</v>
       </c>
       <c r="G46" s="33">
@@ -7241,14 +7375,14 @@
         <v>3.1.1</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="82">
         <v>43822</v>
       </c>
       <c r="F47" s="78">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F47:F50" si="15">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
         <v>43828</v>
       </c>
       <c r="G47" s="33">
@@ -7256,7 +7390,7 @@
       </c>
       <c r="H47" s="132"/>
       <c r="I47" s="99">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I47:I50" si="16">IF(OR(F47=0,E47=0),0,NETWORKDAYS.INTL(E47,F47,11))</f>
         <v>6</v>
       </c>
       <c r="J47" s="89"/>
@@ -7325,20 +7459,25 @@
       <c r="B48" s="133" t="s">
         <v>73</v>
       </c>
+      <c r="C48" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D48" s="12"/>
       <c r="E48" s="82">
         <v>43822</v>
       </c>
       <c r="F48" s="78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43823</v>
       </c>
       <c r="G48" s="33">
         <v>2</v>
       </c>
-      <c r="H48" s="132"/>
+      <c r="H48" s="132">
+        <v>1</v>
+      </c>
       <c r="I48" s="99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J48" s="89"/>
@@ -7407,20 +7546,25 @@
       <c r="B49" s="133" t="s">
         <v>64</v>
       </c>
+      <c r="C49" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D49" s="12"/>
       <c r="E49" s="82">
         <v>43822</v>
       </c>
       <c r="F49" s="78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43827</v>
       </c>
       <c r="G49" s="33">
         <v>6</v>
       </c>
-      <c r="H49" s="132"/>
+      <c r="H49" s="132">
+        <v>0.8</v>
+      </c>
       <c r="I49" s="99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="J49" s="89"/>
@@ -7489,20 +7633,25 @@
       <c r="B50" s="133" t="s">
         <v>65</v>
       </c>
+      <c r="C50" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D50" s="12"/>
       <c r="E50" s="82">
         <v>43822</v>
       </c>
       <c r="F50" s="78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43827</v>
       </c>
       <c r="G50" s="33">
         <v>6</v>
       </c>
-      <c r="H50" s="132"/>
+      <c r="H50" s="132">
+        <v>0.9</v>
+      </c>
       <c r="I50" s="99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="J50" s="89"/>
@@ -7569,20 +7718,20 @@
         <v>3.1.2</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="82">
-        <v>43829</v>
+        <v>43822</v>
       </c>
       <c r="F51" s="78">
         <f t="shared" si="14"/>
-        <v>43834</v>
+        <v>43828</v>
       </c>
       <c r="G51" s="33">
-        <v>6</v>
-      </c>
-      <c r="H51" s="34"/>
+        <v>7</v>
+      </c>
+      <c r="H51" s="132"/>
       <c r="I51" s="99">
         <f t="shared" si="13"/>
         <v>6</v>
@@ -7646,28 +7795,33 @@
       <c r="BN51" s="13"/>
     </row>
     <row r="52" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="124" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.3</v>
-      </c>
-      <c r="B52" s="134" t="s">
-        <v>77</v>
+      <c r="A52" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.2.1</v>
+      </c>
+      <c r="B52" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="82">
-        <v>43829</v>
+        <v>43822</v>
       </c>
       <c r="F52" s="78">
-        <f t="shared" ref="F52" si="15">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
-        <v>43834</v>
+        <f t="shared" si="14"/>
+        <v>43823</v>
       </c>
       <c r="G52" s="33">
-        <v>6</v>
-      </c>
-      <c r="H52" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="H52" s="132">
+        <v>1</v>
+      </c>
       <c r="I52" s="99">
-        <f t="shared" ref="I52" si="16">IF(OR(F52=0,E52=0),0,NETWORKDAYS.INTL(E52,F52,11))</f>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="J52" s="89"/>
       <c r="K52" s="13"/>
@@ -7729,27 +7883,32 @@
     </row>
     <row r="53" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B53" s="121" t="s">
-        <v>75</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.2.2</v>
+      </c>
+      <c r="B53" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="82">
-        <v>43836</v>
+        <v>43822</v>
       </c>
       <c r="F53" s="78">
         <f t="shared" si="14"/>
-        <v>43849</v>
+        <v>43827</v>
       </c>
       <c r="G53" s="33">
-        <v>14</v>
-      </c>
-      <c r="H53" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="H53" s="132">
+        <v>0</v>
+      </c>
       <c r="I53" s="99">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J53" s="89"/>
       <c r="K53" s="13"/>
@@ -7810,25 +7969,30 @@
       <c r="BN53" s="13"/>
     </row>
     <row r="54" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="124" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
-      </c>
-      <c r="B54" s="134" t="s">
-        <v>72</v>
+      <c r="A54" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.2.3</v>
+      </c>
+      <c r="B54" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="82">
-        <v>43836</v>
+        <v>43822</v>
       </c>
       <c r="F54" s="78">
         <f t="shared" si="14"/>
-        <v>43841</v>
+        <v>43827</v>
       </c>
       <c r="G54" s="33">
         <v>6</v>
       </c>
-      <c r="H54" s="34"/>
+      <c r="H54" s="132">
+        <v>0</v>
+      </c>
       <c r="I54" s="99">
         <f t="shared" si="13"/>
         <v>6</v>
@@ -7891,29 +8055,29 @@
       <c r="BM54" s="13"/>
       <c r="BN54" s="13"/>
     </row>
-    <row r="55" spans="1:66" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A55" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.2.1.1</v>
-      </c>
-      <c r="B55" s="133" t="s">
-        <v>66</v>
+    <row r="55" spans="1:66" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.3</v>
+      </c>
+      <c r="B55" s="134" t="s">
+        <v>74</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="82">
-        <v>43836</v>
+        <v>43829</v>
       </c>
       <c r="F55" s="78">
-        <f t="shared" si="14"/>
-        <v>43838</v>
+        <f t="shared" ref="F55:F57" si="17">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+        <v>43834</v>
       </c>
       <c r="G55" s="33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H55" s="34"/>
       <c r="I55" s="99">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" ref="I55:I57" si="18">IF(OR(F55=0,E55=0),0,NETWORKDAYS.INTL(E55,F55,11))</f>
+        <v>6</v>
       </c>
       <c r="J55" s="89"/>
       <c r="K55" s="13"/>
@@ -7973,29 +8137,34 @@
       <c r="BM55" s="13"/>
       <c r="BN55" s="13"/>
     </row>
-    <row r="56" spans="1:66" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.2.1.2</v>
+        <v>3.1.3.1</v>
       </c>
       <c r="B56" s="133" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="82">
-        <v>43839</v>
+        <v>43822</v>
       </c>
       <c r="F56" s="78">
-        <f t="shared" si="14"/>
-        <v>43841</v>
+        <f t="shared" si="17"/>
+        <v>43823</v>
       </c>
       <c r="G56" s="33">
-        <v>3</v>
-      </c>
-      <c r="H56" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="H56" s="132">
+        <v>0.8</v>
+      </c>
       <c r="I56" s="99">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="J56" s="89"/>
       <c r="K56" s="13"/>
@@ -8055,32 +8224,36 @@
       <c r="BM56" s="13"/>
       <c r="BN56" s="13"/>
     </row>
-    <row r="57" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="124" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.2</v>
-      </c>
-      <c r="B57" s="134" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="136">
-        <v>43843</v>
-      </c>
-      <c r="F57" s="137">
-        <f t="shared" si="14"/>
-        <v>43848</v>
-      </c>
-      <c r="G57" s="138">
+    <row r="57" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.3.2</v>
+      </c>
+      <c r="B57" s="133" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="82">
+        <v>43822</v>
+      </c>
+      <c r="F57" s="78">
+        <f t="shared" si="17"/>
+        <v>43827</v>
+      </c>
+      <c r="G57" s="33">
         <v>6</v>
       </c>
-      <c r="H57" s="139"/>
-      <c r="I57" s="140">
-        <f t="shared" si="13"/>
+      <c r="H57" s="132">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="99">
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="J57" s="141"/>
+      <c r="J57" s="89"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
@@ -8138,32 +8311,36 @@
       <c r="BM57" s="13"/>
       <c r="BN57" s="13"/>
     </row>
-    <row r="58" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="124" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.3</v>
-      </c>
-      <c r="B58" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="136">
-        <v>43843</v>
-      </c>
-      <c r="F58" s="137">
-        <f t="shared" ref="F58" si="17">IF(ISBLANK(E58)," - ",IF(G58=0,E58,E58+G58-1))</f>
-        <v>43848</v>
-      </c>
-      <c r="G58" s="138">
+    <row r="58" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.3.3</v>
+      </c>
+      <c r="B58" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="82">
+        <v>43822</v>
+      </c>
+      <c r="F58" s="78">
+        <f t="shared" ref="F58" si="19">IF(ISBLANK(E58)," - ",IF(G58=0,E58,E58+G58-1))</f>
+        <v>43827</v>
+      </c>
+      <c r="G58" s="33">
         <v>6</v>
       </c>
-      <c r="H58" s="139"/>
-      <c r="I58" s="140">
-        <f t="shared" ref="I58" si="18">IF(OR(F58=0,E58=0),0,NETWORKDAYS.INTL(E58,F58,11))</f>
+      <c r="H58" s="132">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="99">
+        <f t="shared" ref="I58" si="20">IF(OR(F58=0,E58=0),0,NETWORKDAYS.INTL(E58,F58,11))</f>
         <v>6</v>
       </c>
-      <c r="J58" s="141"/>
+      <c r="J58" s="89"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
@@ -8221,32 +8398,31 @@
       <c r="BM58" s="13"/>
       <c r="BN58" s="13"/>
     </row>
-    <row r="59" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B59" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="136">
-        <v>43871</v>
-      </c>
-      <c r="F59" s="137">
+        <v>75</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="82">
+        <v>43836</v>
+      </c>
+      <c r="F59" s="78">
         <f t="shared" si="14"/>
-        <v>43884</v>
-      </c>
-      <c r="G59" s="138">
+        <v>43849</v>
+      </c>
+      <c r="G59" s="33">
         <v>14</v>
       </c>
-      <c r="H59" s="139"/>
-      <c r="I59" s="140">
+      <c r="H59" s="34"/>
+      <c r="I59" s="99">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="J59" s="141"/>
+      <c r="J59" s="89"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
@@ -8304,32 +8480,31 @@
       <c r="BM59" s="13"/>
       <c r="BN59" s="13"/>
     </row>
-    <row r="60" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.1</v>
+        <v>3.2.1</v>
       </c>
       <c r="B60" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="136">
-        <v>43871</v>
-      </c>
-      <c r="F60" s="137">
+      <c r="D60" s="12"/>
+      <c r="E60" s="82">
+        <v>43836</v>
+      </c>
+      <c r="F60" s="78">
         <f t="shared" si="14"/>
-        <v>43876</v>
-      </c>
-      <c r="G60" s="138">
+        <v>43841</v>
+      </c>
+      <c r="G60" s="33">
         <v>6</v>
       </c>
-      <c r="H60" s="139"/>
-      <c r="I60" s="140">
+      <c r="H60" s="34"/>
+      <c r="I60" s="99">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="J60" s="141"/>
+      <c r="J60" s="89"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
@@ -8387,32 +8562,31 @@
       <c r="BM60" s="13"/>
       <c r="BN60" s="13"/>
     </row>
-    <row r="61" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:66" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A61" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.3.1.1</v>
+        <v>3.2.1.1</v>
       </c>
       <c r="B61" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="136">
-        <v>43871</v>
-      </c>
-      <c r="F61" s="137">
+        <v>66</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="82">
+        <v>43836</v>
+      </c>
+      <c r="F61" s="78">
         <f t="shared" si="14"/>
-        <v>43873</v>
-      </c>
-      <c r="G61" s="21">
+        <v>43838</v>
+      </c>
+      <c r="G61" s="33">
         <v>3</v>
       </c>
-      <c r="H61" s="22"/>
-      <c r="I61" s="140">
+      <c r="H61" s="34"/>
+      <c r="I61" s="99">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="J61" s="141"/>
+      <c r="J61" s="89"/>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
@@ -8470,32 +8644,31 @@
       <c r="BM61" s="13"/>
       <c r="BN61" s="13"/>
     </row>
-    <row r="62" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:66" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A62" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.3.1.2</v>
+        <v>3.2.1.2</v>
       </c>
       <c r="B62" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="136">
-        <v>43874</v>
-      </c>
-      <c r="F62" s="137">
+        <v>67</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="82">
+        <v>43839</v>
+      </c>
+      <c r="F62" s="78">
         <f t="shared" si="14"/>
-        <v>43876</v>
-      </c>
-      <c r="G62" s="21">
+        <v>43841</v>
+      </c>
+      <c r="G62" s="33">
         <v>3</v>
       </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="140">
+      <c r="H62" s="34"/>
+      <c r="I62" s="99">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="J62" s="141"/>
+      <c r="J62" s="89"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
@@ -8554,29 +8727,29 @@
       <c r="BN62" s="13"/>
     </row>
     <row r="63" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.3.1.3</v>
-      </c>
-      <c r="B63" s="133" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
+      <c r="A63" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.2</v>
+      </c>
+      <c r="B63" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="135"/>
       <c r="E63" s="136">
-        <v>43874</v>
+        <v>43843</v>
       </c>
       <c r="F63" s="137">
-        <f t="shared" ref="F63" si="19">IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
-        <v>43876</v>
-      </c>
-      <c r="G63" s="21">
-        <v>3</v>
-      </c>
-      <c r="H63" s="22"/>
+        <f t="shared" si="14"/>
+        <v>43848</v>
+      </c>
+      <c r="G63" s="138">
+        <v>6</v>
+      </c>
+      <c r="H63" s="139"/>
       <c r="I63" s="140">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J63" s="141"/>
       <c r="K63" s="13"/>
@@ -8639,26 +8812,26 @@
     <row r="64" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.2</v>
+        <v>3.2.3</v>
       </c>
       <c r="B64" s="134" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="135"/>
       <c r="E64" s="136">
-        <v>43885</v>
+        <v>43843</v>
       </c>
       <c r="F64" s="137">
-        <f t="shared" si="14"/>
-        <v>43890</v>
-      </c>
-      <c r="G64" s="21">
+        <f t="shared" ref="F64" si="21">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
+        <v>43848</v>
+      </c>
+      <c r="G64" s="138">
         <v>6</v>
       </c>
-      <c r="H64" s="22"/>
+      <c r="H64" s="139"/>
       <c r="I64" s="140">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I64" si="22">IF(OR(F64=0,E64=0),0,NETWORKDAYS.INTL(E64,F64,11))</f>
         <v>6</v>
       </c>
       <c r="J64" s="141"/>
@@ -8720,16 +8893,31 @@
       <c r="BN64" s="13"/>
     </row>
     <row r="65" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="102"/>
-      <c r="J65" s="91"/>
+      <c r="A65" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
+      </c>
+      <c r="B65" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="136">
+        <v>43871</v>
+      </c>
+      <c r="F65" s="137">
+        <f t="shared" si="14"/>
+        <v>43884</v>
+      </c>
+      <c r="G65" s="138">
+        <v>14</v>
+      </c>
+      <c r="H65" s="139"/>
+      <c r="I65" s="140">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="J65" s="141"/>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
@@ -8788,16 +8976,31 @@
       <c r="BN65" s="13"/>
     </row>
     <row r="66" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="102"/>
-      <c r="J66" s="91"/>
+      <c r="A66" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.1</v>
+      </c>
+      <c r="B66" s="134" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="136">
+        <v>43871</v>
+      </c>
+      <c r="F66" s="137">
+        <f t="shared" si="14"/>
+        <v>43876</v>
+      </c>
+      <c r="G66" s="138">
+        <v>6</v>
+      </c>
+      <c r="H66" s="139"/>
+      <c r="I66" s="140">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="J66" s="141"/>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
@@ -8856,16 +9059,31 @@
       <c r="BN66" s="13"/>
     </row>
     <row r="67" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
-      <c r="B67" s="19"/>
+      <c r="A67" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.3.1.1</v>
+      </c>
+      <c r="B67" s="133" t="s">
+        <v>68</v>
+      </c>
       <c r="C67" s="19"/>
       <c r="D67" s="20"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="21"/>
+      <c r="E67" s="136">
+        <v>43871</v>
+      </c>
+      <c r="F67" s="137">
+        <f t="shared" si="14"/>
+        <v>43873</v>
+      </c>
+      <c r="G67" s="21">
+        <v>3</v>
+      </c>
       <c r="H67" s="22"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="91"/>
+      <c r="I67" s="140">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J67" s="141"/>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
@@ -8924,16 +9142,31 @@
       <c r="BN67" s="13"/>
     </row>
     <row r="68" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
-      <c r="B68" s="19"/>
+      <c r="A68" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.3.1.2</v>
+      </c>
+      <c r="B68" s="133" t="s">
+        <v>69</v>
+      </c>
       <c r="C68" s="19"/>
       <c r="D68" s="20"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="21"/>
+      <c r="E68" s="136">
+        <v>43874</v>
+      </c>
+      <c r="F68" s="137">
+        <f t="shared" si="14"/>
+        <v>43876</v>
+      </c>
+      <c r="G68" s="21">
+        <v>3</v>
+      </c>
       <c r="H68" s="22"/>
-      <c r="I68" s="102"/>
-      <c r="J68" s="91"/>
+      <c r="I68" s="140">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J68" s="141"/>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
@@ -8992,16 +9225,31 @@
       <c r="BN68" s="13"/>
     </row>
     <row r="69" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="10"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.3.1.3</v>
+      </c>
+      <c r="B69" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C69" s="19"/>
       <c r="D69" s="20"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="21"/>
+      <c r="E69" s="136">
+        <v>43874</v>
+      </c>
+      <c r="F69" s="137">
+        <f t="shared" ref="F69" si="23">IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
+        <v>43876</v>
+      </c>
+      <c r="G69" s="21">
+        <v>3</v>
+      </c>
       <c r="H69" s="22"/>
-      <c r="I69" s="102"/>
-      <c r="J69" s="91"/>
+      <c r="I69" s="140">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J69" s="141"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
@@ -9060,16 +9308,31 @@
       <c r="BN69" s="13"/>
     </row>
     <row r="70" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
-      <c r="B70" s="19"/>
+      <c r="A70" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.2</v>
+      </c>
+      <c r="B70" s="134" t="s">
+        <v>74</v>
+      </c>
       <c r="C70" s="19"/>
       <c r="D70" s="20"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="21"/>
+      <c r="E70" s="136">
+        <v>43885</v>
+      </c>
+      <c r="F70" s="137">
+        <f t="shared" si="14"/>
+        <v>43890</v>
+      </c>
+      <c r="G70" s="21">
+        <v>6</v>
+      </c>
       <c r="H70" s="22"/>
-      <c r="I70" s="102"/>
-      <c r="J70" s="91"/>
+      <c r="I70" s="140">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="J70" s="141"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
@@ -9535,19 +9798,17 @@
       <c r="BM76" s="13"/>
       <c r="BN76" s="13"/>
     </row>
-    <row r="77" spans="1:66" s="24" customFormat="1" ht="0.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
+    <row r="77" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="102"/>
+      <c r="J77" s="91"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
@@ -9605,19 +9866,17 @@
       <c r="BM77" s="13"/>
       <c r="BN77" s="13"/>
     </row>
-    <row r="78" spans="1:66" s="23" customFormat="1" ht="18.75" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="105"/>
-      <c r="C78" s="105"/>
-      <c r="D78" s="105"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="105"/>
-      <c r="I78" s="107"/>
-      <c r="J78" s="108"/>
+    <row r="78" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="102"/>
+      <c r="J78" s="91"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
@@ -9675,22 +9934,17 @@
       <c r="BM78" s="13"/>
       <c r="BN78" s="13"/>
     </row>
-    <row r="79" spans="1:66" s="23" customFormat="1" ht="18.75" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="87" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B79" s="98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="100"/>
-      <c r="J79" s="90"/>
+    <row r="79" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="102"/>
+      <c r="J79" s="91"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
@@ -9748,30 +10002,17 @@
       <c r="BM79" s="13"/>
       <c r="BN79" s="13"/>
     </row>
-    <row r="80" spans="1:66" s="23" customFormat="1" ht="18.75" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="78" t="str">
-        <f>IF(ISBLANK(E80)," - ",IF(G80=0,E80,E80+G80-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="34">
-        <v>0</v>
-      </c>
-      <c r="I80" s="99">
-        <f>IF(OR(F80=0,E80=0),0,NETWORKDAYS(E80,F80))</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="89"/>
+    <row r="80" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="10"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="102"/>
+      <c r="J80" s="91"/>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
@@ -9829,30 +10070,17 @@
       <c r="BM80" s="13"/>
       <c r="BN80" s="13"/>
     </row>
-    <row r="81" spans="1:66" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="78" t="str">
-        <f t="shared" ref="F81:F82" si="20">IF(ISBLANK(E81)," - ",IF(G81=0,E81,E81+G81-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="34">
-        <v>0</v>
-      </c>
-      <c r="I81" s="99">
-        <f t="shared" ref="I81:I82" si="21">IF(OR(F81=0,E81=0),0,NETWORKDAYS(E81,F81))</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="89"/>
+    <row r="81" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="10"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="102"/>
+      <c r="J81" s="91"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
@@ -9910,30 +10138,17 @@
       <c r="BM81" s="13"/>
       <c r="BN81" s="13"/>
     </row>
-    <row r="82" spans="1:66" s="23" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="86" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="78" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="34">
-        <v>0</v>
-      </c>
-      <c r="I82" s="99">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="89"/>
+    <row r="82" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="10"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="102"/>
+      <c r="J82" s="91"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
@@ -9991,76 +10206,532 @@
       <c r="BM82" s="13"/>
       <c r="BN82" s="13"/>
     </row>
-    <row r="83" spans="1:66" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
-      <c r="T83" s="26"/>
-      <c r="U83" s="26"/>
-      <c r="V83" s="26"/>
-      <c r="W83" s="26"/>
-      <c r="X83" s="26"/>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="26"/>
-      <c r="AA83" s="26"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="26"/>
-      <c r="AD83" s="26"/>
-      <c r="AE83" s="26"/>
-      <c r="AF83" s="26"/>
-      <c r="AG83" s="26"/>
-      <c r="AH83" s="26"/>
-      <c r="AI83" s="26"/>
-      <c r="AJ83" s="26"/>
-      <c r="AK83" s="26"/>
-      <c r="AL83" s="26"/>
-      <c r="AM83" s="26"/>
-      <c r="AN83" s="26"/>
-      <c r="AO83" s="26"/>
-      <c r="AP83" s="26"/>
-      <c r="AQ83" s="26"/>
-      <c r="AR83" s="26"/>
-      <c r="AS83" s="26"/>
-      <c r="AT83" s="26"/>
-      <c r="AU83" s="26"/>
-      <c r="AV83" s="26"/>
-      <c r="AW83" s="26"/>
-      <c r="AX83" s="26"/>
-      <c r="AY83" s="26"/>
-      <c r="AZ83" s="26"/>
-      <c r="BA83" s="26"/>
-      <c r="BB83" s="26"/>
-      <c r="BC83" s="26"/>
-      <c r="BD83" s="26"/>
-      <c r="BE83" s="26"/>
-      <c r="BF83" s="26"/>
-      <c r="BG83" s="26"/>
-      <c r="BH83" s="26"/>
-      <c r="BI83" s="26"/>
-      <c r="BJ83" s="26"/>
-      <c r="BK83" s="26"/>
-      <c r="BL83" s="26"/>
-      <c r="BM83" s="26"/>
-      <c r="BN83" s="26"/>
+    <row r="83" spans="1:66" s="24" customFormat="1" ht="0.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
+      <c r="Z83" s="13"/>
+      <c r="AA83" s="13"/>
+      <c r="AB83" s="13"/>
+      <c r="AC83" s="13"/>
+      <c r="AD83" s="13"/>
+      <c r="AE83" s="13"/>
+      <c r="AF83" s="13"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="13"/>
+      <c r="AI83" s="13"/>
+      <c r="AJ83" s="13"/>
+      <c r="AK83" s="13"/>
+      <c r="AL83" s="13"/>
+      <c r="AM83" s="13"/>
+      <c r="AN83" s="13"/>
+      <c r="AO83" s="13"/>
+      <c r="AP83" s="13"/>
+      <c r="AQ83" s="13"/>
+      <c r="AR83" s="13"/>
+      <c r="AS83" s="13"/>
+      <c r="AT83" s="13"/>
+      <c r="AU83" s="13"/>
+      <c r="AV83" s="13"/>
+      <c r="AW83" s="13"/>
+      <c r="AX83" s="13"/>
+      <c r="AY83" s="13"/>
+      <c r="AZ83" s="13"/>
+      <c r="BA83" s="13"/>
+      <c r="BB83" s="13"/>
+      <c r="BC83" s="13"/>
+      <c r="BD83" s="13"/>
+      <c r="BE83" s="13"/>
+      <c r="BF83" s="13"/>
+      <c r="BG83" s="13"/>
+      <c r="BH83" s="13"/>
+      <c r="BI83" s="13"/>
+      <c r="BJ83" s="13"/>
+      <c r="BK83" s="13"/>
+      <c r="BL83" s="13"/>
+      <c r="BM83" s="13"/>
+      <c r="BN83" s="13"/>
     </row>
-    <row r="84" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:66" s="23" customFormat="1" ht="18.75" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="106"/>
+      <c r="F84" s="106"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="107"/>
+      <c r="J84" s="108"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="13"/>
+      <c r="AC84" s="13"/>
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13"/>
+      <c r="AF84" s="13"/>
+      <c r="AG84" s="13"/>
+      <c r="AH84" s="13"/>
+      <c r="AI84" s="13"/>
+      <c r="AJ84" s="13"/>
+      <c r="AK84" s="13"/>
+      <c r="AL84" s="13"/>
+      <c r="AM84" s="13"/>
+      <c r="AN84" s="13"/>
+      <c r="AO84" s="13"/>
+      <c r="AP84" s="13"/>
+      <c r="AQ84" s="13"/>
+      <c r="AR84" s="13"/>
+      <c r="AS84" s="13"/>
+      <c r="AT84" s="13"/>
+      <c r="AU84" s="13"/>
+      <c r="AV84" s="13"/>
+      <c r="AW84" s="13"/>
+      <c r="AX84" s="13"/>
+      <c r="AY84" s="13"/>
+      <c r="AZ84" s="13"/>
+      <c r="BA84" s="13"/>
+      <c r="BB84" s="13"/>
+      <c r="BC84" s="13"/>
+      <c r="BD84" s="13"/>
+      <c r="BE84" s="13"/>
+      <c r="BF84" s="13"/>
+      <c r="BG84" s="13"/>
+      <c r="BH84" s="13"/>
+      <c r="BI84" s="13"/>
+      <c r="BJ84" s="13"/>
+      <c r="BK84" s="13"/>
+      <c r="BL84" s="13"/>
+      <c r="BM84" s="13"/>
+      <c r="BN84" s="13"/>
+    </row>
+    <row r="85" spans="1:66" s="23" customFormat="1" ht="18.75" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="87" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B85" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="90"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
+      <c r="Z85" s="13"/>
+      <c r="AA85" s="13"/>
+      <c r="AB85" s="13"/>
+      <c r="AC85" s="13"/>
+      <c r="AD85" s="13"/>
+      <c r="AE85" s="13"/>
+      <c r="AF85" s="13"/>
+      <c r="AG85" s="13"/>
+      <c r="AH85" s="13"/>
+      <c r="AI85" s="13"/>
+      <c r="AJ85" s="13"/>
+      <c r="AK85" s="13"/>
+      <c r="AL85" s="13"/>
+      <c r="AM85" s="13"/>
+      <c r="AN85" s="13"/>
+      <c r="AO85" s="13"/>
+      <c r="AP85" s="13"/>
+      <c r="AQ85" s="13"/>
+      <c r="AR85" s="13"/>
+      <c r="AS85" s="13"/>
+      <c r="AT85" s="13"/>
+      <c r="AU85" s="13"/>
+      <c r="AV85" s="13"/>
+      <c r="AW85" s="13"/>
+      <c r="AX85" s="13"/>
+      <c r="AY85" s="13"/>
+      <c r="AZ85" s="13"/>
+      <c r="BA85" s="13"/>
+      <c r="BB85" s="13"/>
+      <c r="BC85" s="13"/>
+      <c r="BD85" s="13"/>
+      <c r="BE85" s="13"/>
+      <c r="BF85" s="13"/>
+      <c r="BG85" s="13"/>
+      <c r="BH85" s="13"/>
+      <c r="BI85" s="13"/>
+      <c r="BJ85" s="13"/>
+      <c r="BK85" s="13"/>
+      <c r="BL85" s="13"/>
+      <c r="BM85" s="13"/>
+      <c r="BN85" s="13"/>
+    </row>
+    <row r="86" spans="1:66" s="23" customFormat="1" ht="18.75" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="78" t="str">
+        <f>IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G86" s="33"/>
+      <c r="H86" s="34">
+        <v>0</v>
+      </c>
+      <c r="I86" s="99">
+        <f>IF(OR(F86=0,E86=0),0,NETWORKDAYS(E86,F86))</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="89"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="13"/>
+      <c r="X86" s="13"/>
+      <c r="Y86" s="13"/>
+      <c r="Z86" s="13"/>
+      <c r="AA86" s="13"/>
+      <c r="AB86" s="13"/>
+      <c r="AC86" s="13"/>
+      <c r="AD86" s="13"/>
+      <c r="AE86" s="13"/>
+      <c r="AF86" s="13"/>
+      <c r="AG86" s="13"/>
+      <c r="AH86" s="13"/>
+      <c r="AI86" s="13"/>
+      <c r="AJ86" s="13"/>
+      <c r="AK86" s="13"/>
+      <c r="AL86" s="13"/>
+      <c r="AM86" s="13"/>
+      <c r="AN86" s="13"/>
+      <c r="AO86" s="13"/>
+      <c r="AP86" s="13"/>
+      <c r="AQ86" s="13"/>
+      <c r="AR86" s="13"/>
+      <c r="AS86" s="13"/>
+      <c r="AT86" s="13"/>
+      <c r="AU86" s="13"/>
+      <c r="AV86" s="13"/>
+      <c r="AW86" s="13"/>
+      <c r="AX86" s="13"/>
+      <c r="AY86" s="13"/>
+      <c r="AZ86" s="13"/>
+      <c r="BA86" s="13"/>
+      <c r="BB86" s="13"/>
+      <c r="BC86" s="13"/>
+      <c r="BD86" s="13"/>
+      <c r="BE86" s="13"/>
+      <c r="BF86" s="13"/>
+      <c r="BG86" s="13"/>
+      <c r="BH86" s="13"/>
+      <c r="BI86" s="13"/>
+      <c r="BJ86" s="13"/>
+      <c r="BK86" s="13"/>
+      <c r="BL86" s="13"/>
+      <c r="BM86" s="13"/>
+      <c r="BN86" s="13"/>
+    </row>
+    <row r="87" spans="1:66" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="78" t="str">
+        <f t="shared" ref="F87:F88" si="24">IF(ISBLANK(E87)," - ",IF(G87=0,E87,E87+G87-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G87" s="33"/>
+      <c r="H87" s="34">
+        <v>0</v>
+      </c>
+      <c r="I87" s="99">
+        <f t="shared" ref="I87:I88" si="25">IF(OR(F87=0,E87=0),0,NETWORKDAYS(E87,F87))</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="89"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="13"/>
+      <c r="X87" s="13"/>
+      <c r="Y87" s="13"/>
+      <c r="Z87" s="13"/>
+      <c r="AA87" s="13"/>
+      <c r="AB87" s="13"/>
+      <c r="AC87" s="13"/>
+      <c r="AD87" s="13"/>
+      <c r="AE87" s="13"/>
+      <c r="AF87" s="13"/>
+      <c r="AG87" s="13"/>
+      <c r="AH87" s="13"/>
+      <c r="AI87" s="13"/>
+      <c r="AJ87" s="13"/>
+      <c r="AK87" s="13"/>
+      <c r="AL87" s="13"/>
+      <c r="AM87" s="13"/>
+      <c r="AN87" s="13"/>
+      <c r="AO87" s="13"/>
+      <c r="AP87" s="13"/>
+      <c r="AQ87" s="13"/>
+      <c r="AR87" s="13"/>
+      <c r="AS87" s="13"/>
+      <c r="AT87" s="13"/>
+      <c r="AU87" s="13"/>
+      <c r="AV87" s="13"/>
+      <c r="AW87" s="13"/>
+      <c r="AX87" s="13"/>
+      <c r="AY87" s="13"/>
+      <c r="AZ87" s="13"/>
+      <c r="BA87" s="13"/>
+      <c r="BB87" s="13"/>
+      <c r="BC87" s="13"/>
+      <c r="BD87" s="13"/>
+      <c r="BE87" s="13"/>
+      <c r="BF87" s="13"/>
+      <c r="BG87" s="13"/>
+      <c r="BH87" s="13"/>
+      <c r="BI87" s="13"/>
+      <c r="BJ87" s="13"/>
+      <c r="BK87" s="13"/>
+      <c r="BL87" s="13"/>
+      <c r="BM87" s="13"/>
+      <c r="BN87" s="13"/>
+    </row>
+    <row r="88" spans="1:66" s="23" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="86" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="78" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G88" s="33"/>
+      <c r="H88" s="34">
+        <v>0</v>
+      </c>
+      <c r="I88" s="99">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="89"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="13"/>
+      <c r="Z88" s="13"/>
+      <c r="AA88" s="13"/>
+      <c r="AB88" s="13"/>
+      <c r="AC88" s="13"/>
+      <c r="AD88" s="13"/>
+      <c r="AE88" s="13"/>
+      <c r="AF88" s="13"/>
+      <c r="AG88" s="13"/>
+      <c r="AH88" s="13"/>
+      <c r="AI88" s="13"/>
+      <c r="AJ88" s="13"/>
+      <c r="AK88" s="13"/>
+      <c r="AL88" s="13"/>
+      <c r="AM88" s="13"/>
+      <c r="AN88" s="13"/>
+      <c r="AO88" s="13"/>
+      <c r="AP88" s="13"/>
+      <c r="AQ88" s="13"/>
+      <c r="AR88" s="13"/>
+      <c r="AS88" s="13"/>
+      <c r="AT88" s="13"/>
+      <c r="AU88" s="13"/>
+      <c r="AV88" s="13"/>
+      <c r="AW88" s="13"/>
+      <c r="AX88" s="13"/>
+      <c r="AY88" s="13"/>
+      <c r="AZ88" s="13"/>
+      <c r="BA88" s="13"/>
+      <c r="BB88" s="13"/>
+      <c r="BC88" s="13"/>
+      <c r="BD88" s="13"/>
+      <c r="BE88" s="13"/>
+      <c r="BF88" s="13"/>
+      <c r="BG88" s="13"/>
+      <c r="BH88" s="13"/>
+      <c r="BI88" s="13"/>
+      <c r="BJ88" s="13"/>
+      <c r="BK88" s="13"/>
+      <c r="BL88" s="13"/>
+      <c r="BM88" s="13"/>
+      <c r="BN88" s="13"/>
+    </row>
+    <row r="89" spans="1:66" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="25"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="26"/>
+      <c r="U89" s="26"/>
+      <c r="V89" s="26"/>
+      <c r="W89" s="26"/>
+      <c r="X89" s="26"/>
+      <c r="Y89" s="26"/>
+      <c r="Z89" s="26"/>
+      <c r="AA89" s="26"/>
+      <c r="AB89" s="26"/>
+      <c r="AC89" s="26"/>
+      <c r="AD89" s="26"/>
+      <c r="AE89" s="26"/>
+      <c r="AF89" s="26"/>
+      <c r="AG89" s="26"/>
+      <c r="AH89" s="26"/>
+      <c r="AI89" s="26"/>
+      <c r="AJ89" s="26"/>
+      <c r="AK89" s="26"/>
+      <c r="AL89" s="26"/>
+      <c r="AM89" s="26"/>
+      <c r="AN89" s="26"/>
+      <c r="AO89" s="26"/>
+      <c r="AP89" s="26"/>
+      <c r="AQ89" s="26"/>
+      <c r="AR89" s="26"/>
+      <c r="AS89" s="26"/>
+      <c r="AT89" s="26"/>
+      <c r="AU89" s="26"/>
+      <c r="AV89" s="26"/>
+      <c r="AW89" s="26"/>
+      <c r="AX89" s="26"/>
+      <c r="AY89" s="26"/>
+      <c r="AZ89" s="26"/>
+      <c r="BA89" s="26"/>
+      <c r="BB89" s="26"/>
+      <c r="BC89" s="26"/>
+      <c r="BD89" s="26"/>
+      <c r="BE89" s="26"/>
+      <c r="BF89" s="26"/>
+      <c r="BG89" s="26"/>
+      <c r="BH89" s="26"/>
+      <c r="BI89" s="26"/>
+      <c r="BJ89" s="26"/>
+      <c r="BK89" s="26"/>
+      <c r="BL89" s="26"/>
+      <c r="BM89" s="26"/>
+      <c r="BN89" s="26"/>
+    </row>
+    <row r="90" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="18">
@@ -10084,8 +10755,8 @@
     <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H78:H82 H8:H51 H53:H57 H59:H76">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="H84:H88 H8:H46 H59:H63 H65:H82 H51:H54">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10099,44 +10770,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BM7">
-    <cfRule type="expression" dxfId="4" priority="48">
+    <cfRule type="expression" dxfId="19" priority="72">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN44 K46:BN82 L45:BN45">
-    <cfRule type="expression" dxfId="3" priority="51">
+  <conditionalFormatting sqref="K8:BN44 K46:BN46 L45:BN45 K51:BN54 K59:BN88">
+    <cfRule type="expression" dxfId="18" priority="75">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="52">
+    <cfRule type="expression" dxfId="17" priority="76">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN44 K46:BN82 L45:BN45">
-    <cfRule type="expression" dxfId="1" priority="5">
+  <conditionalFormatting sqref="K6:BN44 K46:BN46 L45:BN45 K51:BN54 K59:BN88">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="0" priority="58">
+    <cfRule type="expression" dxfId="15" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E8FBB631-A29B-4067-AC5E-1C3CA9D16305}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10149,6 +10806,141 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE67C7AF-EACE-40D1-A209-FDCE02527CAF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="14" priority="23">
+      <formula>AND($E55&lt;=K$6,ROUNDDOWN(($F55-$E55+1)*$H55,0)+$E55-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="24">
+      <formula>AND(NOT(ISBLANK($E55)),$E55&lt;=K$6,$F55&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="12" priority="21">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56:H57">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{29B81D33-14A8-4D06-83AE-DF749601CB6E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:BN57">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>AND($E56&lt;=K$6,ROUNDDOWN(($F56-$E56+1)*$H56,0)+$E56-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>AND(NOT(ISBLANK($E56)),$E56&lt;=K$6,$F56&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:BN57">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C8ABA3A-7331-4149-93D1-306DF0902350}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND($E58&lt;=K$6,ROUNDDOWN(($F58-$E58+1)*$H58,0)+$E58-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>AND(NOT(ISBLANK($E58)),$E58&lt;=K$6,$F58&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B6C53065-0AB5-433C-8734-7753E463A77D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H50">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A3BC56D-0C3A-4D3F-B828-6F013EB45519}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN50">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E48&lt;=K$6,ROUNDDOWN(($F48-$E48+1)*$H48,0)+$E48-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E48)),$E48&lt;=K$6,$F48&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN50">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Start Date." sqref="I4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C33" xr:uid="{B7FBE824-965D-485C-A8C3-40D523A86B9F}">
@@ -10159,7 +10951,7 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A76:B76 B77:B78 E81:E82 E76:I79 H45 H61" unlockedFormula="1"/>
+    <ignoredError sqref="A82:B82 B83:B84 E87:E88 E82:I85 H45 H67" unlockedFormula="1"/>
     <ignoredError sqref="A45 A34 A21 A18 A24:A25 A26 A29 A32 A39" formula="1"/>
     <ignoredError sqref="H9" formulaRange="1"/>
   </ignoredErrors>
@@ -10209,22 +11001,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H78:H82 H8:H51 H53:H57 H59:H76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E8FBB631-A29B-4067-AC5E-1C3CA9D16305}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
+          <xm:sqref>H84:H88 H8:H46 H59:H63 H65:H82 H51:H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51D4B6FB-EFB5-4CB7-B799-53A404183503}">
@@ -10239,7 +11016,82 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE67C7AF-EACE-40D1-A209-FDCE02527CAF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{29B81D33-14A8-4D06-83AE-DF749601CB6E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H56:H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C8ABA3A-7331-4149-93D1-306DF0902350}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B6C53065-0AB5-433C-8734-7753E463A77D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A3BC56D-0C3A-4D3F-B828-6F013EB45519}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H48:H50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
